--- a/db/231227_db 모델링2.xlsx
+++ b/db/231227_db 모델링2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psm90\Desktop\psmin\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C2E53E-300A-4D8D-88D9-46E7E07B924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262397E-DAA6-433D-9304-9C04ECA3FFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15664C10-8BB2-4282-90ED-AEAAF573D848}"/>
+    <workbookView xWindow="11160" yWindow="3285" windowWidth="25155" windowHeight="16155" xr2:uid="{15664C10-8BB2-4282-90ED-AEAAF573D848}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
